--- a/Javascript&JQuery/명령어.xlsx
+++ b/Javascript&JQuery/명령어.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>document</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,7 +336,318 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원쥬울 상수를 반환</t>
+    <t>원주율 상수를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join(연결할 문자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 객체의 데이터를 연결 문자 기준으로 1개의 문자형 데이터로 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 객체의 데이터 순서를 거꾸로 바꾼 후 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 객체의 데이터를 오름차순으로 정렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 객체의 데이터 중 원하는 인덱스 구간만큼 잘라서 배열 객체로 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 객체의 지정 데이터를 삭제하고 그 구간에 새 데이터를 삽입할 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개의 배열 객체를 하나로 결합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열에 저장된 데이터 중 마지막 인덱스에 저장된 데이터를 삭제함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 객체의 마지막 인덱스에 새 데이터를 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push(new data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 객체에 저장된 데이터 중 첫 번째 인덱스에 저장된 데이터를 삭제함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 객체의 가장 앞의 인덱스에 새 데이터를 삽입함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열에 저장된 총 데이터의 개수를 반환함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unshift(new data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.join()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.reverse()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.sort()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.slice()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.splice()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.concat()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.pop()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.push()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.shift()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.unshift()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice(시작 인덱스, 잘라낼 개수, (삽입할 데이터))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charAt()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indexOf()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastIndexOf()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>match()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charAt(index)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indexOf("찾을 문자")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastIndexOf("찾을 문자")</t>
+  </si>
+  <si>
+    <t>match("찾을 문자")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace("찾을 문자", "새 문자")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search("찾을 문자")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice(자를 개수, 종료 인덱스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring(시작 인덱스, 종료 인덱스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에서 인덱스 번호에 해당하는 문자를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에서 왼쪽부터 찾을 문자와 일치하는 문자를 찾아 제일 먼저 일치하는 문자의 인덱스 번호를 반환. 만일 찾는 문자가 없으면 -1을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에서 오른쪽부터 찾을 문자와 일치하는 문자를 찾아 제일 먼저 일치하는 문자의 인덱스 번호를 반환. 만일 찾는 문자가 없으면 -1을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에서 왼쪽부터 찾을 문자와 일치하는 문자를 찾아 제일 먼저 찾은 문자를 반환. 만일 찾는 문자가 없으면 null을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에서 왼쪽부터 바꿀 문자와 일치하는 문자를 찾아 제일 처음 찾은 문자를 새 문자로 치환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에서 왼쪽부터 바꿀 문자와 일치하는 문자를 찾아 제일 먼저 일치하는 인덱스 번호를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자를 개수만큼 자르고, 종료 인덱스 이후의 문자를 자른 후 남은 값을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 인덱스부터 종료 인덱스까지의 문자만 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toLowerCase()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toUpperCase()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charCodeAt()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trim()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromCharCode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substr(시작 인덱스, 문자개수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>split(문자를 나눌 기준)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat(결합할 문자열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charCodeAt(인덱스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromCharCode(아스키코드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에 시작 인덱스부터 지정된 문자개수 만큼의 문자를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정된 문자를 나눌 기준으로 문자를 잘라서 배열로 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에서 영문 대문자를 모두 소문자로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에서 영문 소문자를 모두 대문자로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열의 문자개수(길이)를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열에 새로운 문자열을 결합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아스키코드값을 문자로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열의 인덱스에 해당하는 문자를 아스키코드값으로 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열의 앞, 뒤의 공백을 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,18 +973,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="44.75" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="46.75" customWidth="1"/>
+    <col min="5" max="5" width="121.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -803,7 +1115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -811,7 +1123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -819,7 +1131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -827,7 +1139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>27</v>
       </c>
@@ -835,7 +1147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -843,7 +1155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -851,7 +1163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -859,7 +1171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -867,7 +1179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -875,7 +1187,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -889,7 +1204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>53</v>
       </c>
@@ -900,7 +1215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>54</v>
       </c>
@@ -911,7 +1226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>55</v>
       </c>
@@ -922,7 +1237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>56</v>
       </c>
@@ -930,7 +1245,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>57</v>
       </c>
@@ -941,7 +1256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>58</v>
       </c>
@@ -952,7 +1267,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>59</v>
       </c>
@@ -963,7 +1278,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>60</v>
       </c>
@@ -974,12 +1289,299 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>61</v>
       </c>
       <c r="E36" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="E66" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Javascript&JQuery/명령어.xlsx
+++ b/Javascript&JQuery/명령어.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="236">
   <si>
     <t>document</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,6 +648,317 @@
   </si>
   <si>
     <t>문자열의 앞, 뒤의 공백을 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라우저 객체모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open("URL", "새 창 이름", "새 창 옵션")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL 페이지를 새 창으로 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.open()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert(data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 창을 나타내고 데이터를 보여줌. 방문자가 '확인' 버튼을 누르면 alert()를 사용한 다음 위치의 코드를 수행함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prompt()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prompt("질문", "답변")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문과 답변으로 질의응답 창을 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm("질문 내용")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 내용으로 확인이나 취소 창을 나타냄. '확인' 버튼을 누르면 true, '취소' 버튼을 누르면 false를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.moveTo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTo(x, y)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 새 창의 위치를 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resizeTo(width, height)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.resizeTo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정한 새 창의 크기를 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setInterval()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setInterval(function() {JS Code}, 일정 시간 간격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속적으로 일정한 시간 간격으로 함수를 호출하여 코드를 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout(function() {JS Code}, 일정 시간 간격)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단 한 번 일정한 시간 간격으로 함수를 호출하여 코드를 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면의 너빗값을 반환</t>
+  </si>
+  <si>
+    <t>화면의 높이값을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 표시줄을 제외한 화면의 너빗값을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업 표시줄을 제외한 화면의 높이값을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 모니터가 표현 가능한 컬러 bit를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.href</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.availWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.availHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.colorDepth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.reaload()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 영역의 참조 주소를 설정하거나 URL을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL의 해시값(#에 명시된 값)을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL의 호스트 이름을 설정하거나 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL의 호스트 이름과 포트 번호를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL의 프로토콜을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL의 쿼리(요청값)을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.back()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.forward()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.go()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go(이동숫자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 방문 사이트로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 방문 사이트로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 숫자에 -2를 입력하면 2단계 이전의 방문 사이트로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문 기록에 저장된 목록의 개수를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>navigator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.appCodeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.appName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.appVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.onLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.userAgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 브라우저의 버전 정보를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 브라우저의 이름을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 브라우저의 코드명을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 브라우저가 사용하고 있는 언어를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 브라우저의 엔진 이름을 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 컴퓨터의 운영체제 정보를 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 상태 여부에 대한 정보를 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라우저와 운영체제의 종합 정보를 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,15 +1284,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="46.75" customWidth="1"/>
@@ -1565,7 +1876,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>143</v>
       </c>
@@ -1576,12 +1887,313 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>142</v>
       </c>
       <c r="E66" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" t="s">
+        <v>160</v>
+      </c>
+      <c r="E68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>195</v>
+      </c>
+      <c r="E80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="E87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+      <c r="E91" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>213</v>
+      </c>
+      <c r="E94" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+      <c r="E96" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>221</v>
+      </c>
+      <c r="E97" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
